--- a/docs/对接文档/接口说明.xlsx
+++ b/docs/对接文档/接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22968" windowHeight="10164" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="392">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1048,14 +1048,6 @@
       </rPr>
       <t>.do</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxcf数组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxcf数组</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1727,6 +1719,177 @@
     "msg": null,
     "data": 1
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出PDF或WORD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{type}/packZip/do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf集合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是导出单个文件，则返回此文件的路径，如果导出多个文件则返回zip的路径</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":"fileUpLoad/201506/word.zip"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxcf集合
+type:
+    1.WORD
+    2.PDF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体讨论</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据编号查询集体讨论信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/jttls</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{jtbh}/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jtbh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ttl</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"jt_bh":2,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":null}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Jttl&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集体讨论列表(无分页)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jttl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;Jttl&gt; </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":[{"jt_bh":3,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"否"},{"jt_bh":2,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":null}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询集体讨论信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{pageNum}/{pageSize}/queryPage.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageInfo&lt;Jttl&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"pageNum":1,"pageSize":10,"size":2,"startRow":1,"endRow":2,"total":2,"pages":1,"list":[{"jt_bh":3,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":"否"},{"jt_bh":2,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:14","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":null}],"firstPage":1,"prePage":0,"nextPage":0,"lastPage":1,"isFirstPage":true,"isLastPage":false,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条集体讨论信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{ajid}/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)ajid:案卷ID
+(2)Jttl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":"新增成功","data":{"jt_bh":4,"jt_zcr":"1","jt_jlr":"1","jt_sj":"2015-06-07 13:42","jt_dd":"1","jt_cjry":"1","jt_nr":"1","jt_zdyj":"1","jt_zt":null}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单位信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{jtbh}/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "success": true,
+    "msg": null,
+    "data": 1
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新  有字段就更新无字段就不更新，防止更新后出现null结果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一条信息  可能出现更新后字段为null的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateAll.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update.do</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1927,15 +2090,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1951,12 +2105,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,6 +2112,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1975,15 +2132,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1991,6 +2139,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2126,19 +2289,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114827</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>8260</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>473300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>8285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2151,8 +2314,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8061960" y="1402080"/>
-          <a:ext cx="6073667" cy="7384420"/>
+          <a:off x="8229600" y="2209800"/>
+          <a:ext cx="9922100" cy="7674005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68929</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="3284220"/>
+          <a:ext cx="4023709" cy="2255716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N72"/>
+  <dimension ref="B1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -2518,17 +2719,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
@@ -2585,13 +2786,13 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -2618,11 +2819,11 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
@@ -2647,11 +2848,11 @@
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
@@ -2676,11 +2877,11 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
@@ -2703,11 +2904,11 @@
       <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
@@ -2730,11 +2931,11 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
@@ -2759,11 +2960,11 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -2788,11 +2989,11 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2819,11 +3020,11 @@
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
@@ -2850,13 +3051,13 @@
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2883,11 +3084,11 @@
       <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
@@ -2912,11 +3113,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
@@ -2941,11 +3142,11 @@
       <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
@@ -2968,11 +3169,11 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
@@ -2995,13 +3196,13 @@
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3028,11 +3229,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
@@ -3057,11 +3258,11 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="8" t="s">
         <v>65</v>
       </c>
@@ -3086,11 +3287,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3113,11 +3314,11 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="8" t="s">
         <v>70</v>
       </c>
@@ -3140,13 +3341,13 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="33" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -3173,11 +3374,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
@@ -3202,11 +3403,11 @@
       <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="8" t="s">
         <v>77</v>
       </c>
@@ -3231,11 +3432,11 @@
       <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="8" t="s">
         <v>79</v>
       </c>
@@ -3258,11 +3459,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="8" t="s">
         <v>81</v>
       </c>
@@ -3285,13 +3486,13 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="36" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -3320,11 +3521,11 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="9" t="s">
         <v>27</v>
       </c>
@@ -3351,11 +3552,11 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="45"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="9" t="s">
         <v>90</v>
       </c>
@@ -3371,7 +3572,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>87</v>
@@ -3382,16 +3583,16 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>19</v>
@@ -3413,11 +3614,11 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="9" t="s">
         <v>38</v>
       </c>
@@ -3444,11 +3645,11 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="9" t="s">
         <v>284</v>
       </c>
@@ -3475,11 +3676,11 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="9" t="s">
         <v>93</v>
       </c>
@@ -3506,11 +3707,11 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="9" t="s">
         <v>95</v>
       </c>
@@ -3535,11 +3736,11 @@
     </row>
     <row r="36" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="45"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="10" t="s">
         <v>98</v>
       </c>
@@ -3555,7 +3756,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>87</v>
@@ -3564,16 +3765,16 @@
     </row>
     <row r="37" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
-      <c r="C37" s="46"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="9" t="s">
         <v>285</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>19</v>
@@ -3584,117 +3785,117 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N37" s="19"/>
     </row>
     <row r="38" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
-      <c r="C38" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>306</v>
+      <c r="C38" s="38"/>
+      <c r="D38" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>312</v>
+      <c r="K38" s="9"/>
+      <c r="L38" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="N38" s="19"/>
     </row>
     <row r="39" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
-      <c r="C39" s="42"/>
+      <c r="C39" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="D39" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="23" t="s">
+      <c r="I39" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="H39" s="26" t="s">
+      <c r="J39" s="9"/>
+      <c r="K39" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="2:14" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="2">
-        <v>33</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="2"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="N40" s="19"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
-        <v>34</v>
-      </c>
-      <c r="C41" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="C41" s="40"/>
       <c r="D41" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="48"/>
+        <v>102</v>
+      </c>
+      <c r="E41" s="43"/>
       <c r="F41" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>104</v>
@@ -3703,7 +3904,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -3715,15 +3916,15 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
-        <v>35</v>
-      </c>
-      <c r="C42" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="C42" s="40"/>
       <c r="D42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="48"/>
+        <v>105</v>
+      </c>
+      <c r="E42" s="43"/>
       <c r="F42" s="23" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>104</v>
@@ -3744,22 +3945,24 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
-        <v>36</v>
-      </c>
-      <c r="C43" s="42"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="40"/>
       <c r="D43" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="48"/>
+        <v>106</v>
+      </c>
+      <c r="E43" s="43"/>
       <c r="F43" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="H43" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -3771,22 +3974,22 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
-        <v>37</v>
-      </c>
-      <c r="C44" s="43"/>
+        <v>36</v>
+      </c>
+      <c r="C44" s="40"/>
       <c r="D44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="49"/>
+        <v>108</v>
+      </c>
+      <c r="E44" s="43"/>
       <c r="F44" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -3798,26 +4001,22 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
-        <v>38</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="23"/>
       <c r="H45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>116</v>
+      <c r="I45" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -3829,15 +4028,19 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
-        <v>39</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="14" t="s">
-        <v>117</v>
+        <v>38</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13" t="s">
@@ -3856,15 +4059,15 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
-        <v>40</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="13" t="s">
-        <v>118</v>
+        <v>39</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13" t="s">
@@ -3883,22 +4086,22 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
-        <v>41</v>
-      </c>
-      <c r="C48" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="48"/>
       <c r="D48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" s="42"/>
+        <v>295</v>
+      </c>
+      <c r="E48" s="40"/>
       <c r="F48" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3910,15 +4113,15 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
-        <v>42</v>
-      </c>
-      <c r="C49" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="C49" s="48"/>
       <c r="D49" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="42"/>
+        <v>296</v>
+      </c>
+      <c r="E49" s="40"/>
       <c r="F49" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13" t="s">
@@ -3937,22 +4140,22 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
-        <v>43</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="42"/>
+        <v>42</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="40"/>
       <c r="F50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>20</v>
+      <c r="I50" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -3964,22 +4167,22 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
-        <v>44</v>
-      </c>
-      <c r="C51" s="36"/>
+        <v>43</v>
+      </c>
+      <c r="C51" s="48"/>
       <c r="D51" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="43"/>
+        <v>122</v>
+      </c>
+      <c r="E51" s="40"/>
       <c r="F51" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -3989,52 +4192,48 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
-        <v>45</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>127</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C52" s="48"/>
       <c r="D52" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E52" s="41"/>
       <c r="F52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>131</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="13" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K52" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
-        <v>46</v>
-      </c>
-      <c r="C53" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>127</v>
+      </c>
       <c r="D53" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="42"/>
+        <v>128</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F53" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>131</v>
@@ -4045,37 +4244,41 @@
       <c r="I53" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="K53" s="13"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
-        <v>47</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="J54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54" s="13"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
         <v>21</v>
@@ -4084,15 +4287,15 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
-        <v>48</v>
-      </c>
-      <c r="C55" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="C55" s="49"/>
       <c r="D55" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="42"/>
+        <v>137</v>
+      </c>
+      <c r="E55" s="40"/>
       <c r="F55" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
@@ -4111,15 +4314,15 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
-        <v>49</v>
-      </c>
-      <c r="C56" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="C56" s="49"/>
       <c r="D56" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="42"/>
+        <v>139</v>
+      </c>
+      <c r="E56" s="40"/>
       <c r="F56" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
@@ -4138,15 +4341,15 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
-        <v>50</v>
-      </c>
-      <c r="C57" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="C57" s="49"/>
       <c r="D57" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="42"/>
+        <v>141</v>
+      </c>
+      <c r="E57" s="40"/>
       <c r="F57" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
@@ -4165,22 +4368,22 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
-        <v>51</v>
-      </c>
-      <c r="C58" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="C58" s="49"/>
       <c r="D58" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="42"/>
+        <v>143</v>
+      </c>
+      <c r="E58" s="40"/>
       <c r="F58" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
@@ -4192,24 +4395,22 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
+        <v>51</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
@@ -4219,293 +4420,293 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
-        <v>53</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="N60" s="20">
-        <v>42149</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
+        <v>53</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="N61" s="20">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="2">
         <v>54</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C62" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="F62" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="G62" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="N61" s="20"/>
-    </row>
-    <row r="62" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="2"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="23"/>
       <c r="L62" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="N62" s="20"/>
     </row>
     <row r="63" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
-      <c r="C63" s="30"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E63" s="33"/>
+        <v>311</v>
+      </c>
+      <c r="E63" s="29"/>
       <c r="F63" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N63" s="20"/>
     </row>
     <row r="64" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2"/>
-      <c r="C64" s="31" t="s">
-        <v>326</v>
-      </c>
+      <c r="C64" s="47"/>
       <c r="D64" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>328</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E64" s="30"/>
       <c r="F64" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>330</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="G64" s="23"/>
       <c r="H64" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="N64" s="20"/>
     </row>
     <row r="65" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
-      <c r="C65" s="32"/>
+      <c r="C65" s="28" t="s">
+        <v>324</v>
+      </c>
       <c r="D65" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E65" s="32"/>
+        <v>325</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>326</v>
+      </c>
       <c r="F65" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H65" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="25" t="s">
-        <v>351</v>
+      <c r="L65" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N65" s="20"/>
     </row>
     <row r="66" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
-      <c r="C66" s="32"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="E66" s="32"/>
+        <v>335</v>
+      </c>
+      <c r="E66" s="29"/>
       <c r="F66" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>349</v>
+        <v>330</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="H66" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="23"/>
       <c r="L66" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N66" s="20"/>
     </row>
     <row r="67" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
-      <c r="C67" s="32"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="E67" s="32"/>
+        <v>336</v>
+      </c>
+      <c r="E67" s="29"/>
       <c r="F67" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>347</v>
       </c>
       <c r="H67" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="23"/>
       <c r="L67" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N67" s="20"/>
     </row>
     <row r="68" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-      <c r="C68" s="32"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E68" s="32"/>
+        <v>337</v>
+      </c>
+      <c r="E68" s="29"/>
       <c r="F68" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H68" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>33</v>
+      <c r="I68" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="23"/>
       <c r="L68" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N68" s="20"/>
     </row>
     <row r="69" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-      <c r="C69" s="32"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E69" s="32"/>
+        <v>338</v>
+      </c>
+      <c r="E69" s="29"/>
       <c r="F69" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H69" s="23" t="s">
         <v>19</v>
@@ -4516,54 +4717,54 @@
       <c r="J69" s="9"/>
       <c r="K69" s="23"/>
       <c r="L69" s="25" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N69" s="20"/>
     </row>
     <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-      <c r="C70" s="32"/>
+      <c r="C70" s="29"/>
       <c r="D70" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E70" s="32"/>
+        <v>341</v>
+      </c>
+      <c r="E70" s="29"/>
       <c r="F70" s="23" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="23"/>
       <c r="L70" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N70" s="20"/>
     </row>
     <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="33"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E71" s="33"/>
+        <v>342</v>
+      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H71" s="23" t="s">
         <v>19</v>
@@ -4574,67 +4775,334 @@
       <c r="J71" s="9"/>
       <c r="K71" s="23"/>
       <c r="L71" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B72" s="2">
+    <row r="72" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="2"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E72" s="30"/>
+      <c r="F72" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="2"/>
+      <c r="C73" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="2"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="2"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="2"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="2"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N77" s="20"/>
+    </row>
+    <row r="78" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="2"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N78" s="20"/>
+    </row>
+    <row r="79" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="2"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N79" s="20"/>
+    </row>
+    <row r="80" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="2"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N80" s="20"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B81" s="2">
         <v>55</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D81" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E81" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="13" t="s">
+      <c r="F81" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="19" t="s">
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N81" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="E64:E71"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:E63"/>
+  <mergeCells count="23">
+    <mergeCell ref="E65:E72"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="E73:E80"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C4:C12"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="C52:C60"/>
     <mergeCell ref="E4:E12"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E45:E51"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="E28:E38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="C65:C72"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5352,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/docs/对接文档/接口说明.xlsx
+++ b/docs/对接文档/接口说明.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="421">
   <si>
     <t>说明：接口灰色为弃用接口，蓝色为本次更新接口</t>
   </si>
@@ -1890,6 +1890,122 @@
   </si>
   <si>
     <t>/update.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息提醒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID查询提醒消息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/notis</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{notid}/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>notid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noti</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"notid":"2","unread":"2","app":"2","route":"2","content":"2","notitime":1433609938000,"senduser":"xc"}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Noti&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询提醒消息列表(无分页)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":[{"notid":"2","unread":"2","app":"2","route":"2","content":"2","notitime":1433609938000,"senduser":"xc"}]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询提醒信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{pageNum}/{pageSize}/queryPage.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jttl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageInfo&lt;Noti&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":null,"data":{"pageNum":1,"pageSize":10,"size":1,"startRow":1,"endRow":1,"total":1,"pages":1,"list":[{"notid":"2","unread":"2","app":"2","route":"2","content":"2","notitime":1433609938000,"senduser":"xc"}],"firstPage":1,"prePage":0,"nextPage":0,"lastPage":1,"isFirstPage":true,"isLastPage":false,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":8,"navigatepageNums":[1]}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一条提醒消息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insert.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"msg":"新增成功","data":{"notid":"111","unread":null,"app":"5555555555555555","route":null,"content":null,"notitime":1433662415774,"senduser":"haha"}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除提醒信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除提醒信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性更新提醒信息  有字段就更新无字段就不更新，防止更新后出现null结果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{notid}/delete.do</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新一条提醒信息  可能出现更新后字段为null的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateAll.do</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2326,20 +2442,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68929</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53536</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99357</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2352,8 +2468,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312420" y="3284220"/>
-          <a:ext cx="4023709" cy="2255716"/>
+          <a:off x="4594860" y="3771900"/>
+          <a:ext cx="3429297" cy="1524132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305197</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3444240"/>
+          <a:ext cx="4572397" cy="2034716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N81"/>
+  <dimension ref="B1:N89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -4884,7 +5038,7 @@
         <v>376</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="H75" s="23" t="s">
         <v>19</v>
@@ -5047,39 +5201,277 @@
       </c>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81" s="2">
+    <row r="81" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="2"/>
+      <c r="C81" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N81" s="20"/>
+    </row>
+    <row r="82" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="2"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N82" s="20"/>
+    </row>
+    <row r="83" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="2"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="M83" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="2"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="2"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N85" s="20"/>
+    </row>
+    <row r="86" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="2"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M86" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="2"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" s="29"/>
+      <c r="F87" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="N87" s="20"/>
+    </row>
+    <row r="88" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="2"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="N88" s="20"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="2">
         <v>55</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D89" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E89" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F89" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="13" t="s">
+      <c r="G89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="19" t="s">
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N81" s="2"/>
+      <c r="N89" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="C65:C72"/>
     <mergeCell ref="E65:E72"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="E62:E64"/>
@@ -5087,6 +5479,8 @@
     <mergeCell ref="C53:C61"/>
     <mergeCell ref="E46:E52"/>
     <mergeCell ref="E53:E61"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="E81:E88"/>
     <mergeCell ref="C73:C80"/>
     <mergeCell ref="E73:E80"/>
     <mergeCell ref="B1:J1"/>
@@ -5101,8 +5495,6 @@
     <mergeCell ref="C28:C38"/>
     <mergeCell ref="E28:E38"/>
     <mergeCell ref="C39:C45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="C65:C72"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5820,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
